--- a/Data/aearep-1508/candidatepackages.xlsx
+++ b/Data/aearep-1508/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,21 +25,18 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>ivreg2</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>shp2dta</t>
   </si>
   <si>
@@ -70,15 +67,12 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>surface</t>
   </si>
   <si>
     <t>distplot</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
     <t>centroid</t>
   </si>
   <si>
@@ -94,52 +88,43 @@
     <t>white</t>
   </si>
   <si>
+    <t>ic</t>
+  </si>
+  <si>
     <t>running</t>
   </si>
   <si>
-    <t>ic</t>
-  </si>
-  <si>
     <t>find</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>extreme</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>kernel</t>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si>
     <t>progres</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>try</t>
   </si>
   <si>
     <t>dependencies</t>
@@ -148,12 +133,12 @@
     <t>majority</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1508</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1508/125341/Do_files/Ado</t>
   </si>
   <si>
@@ -187,18 +169,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1508/125341/Do_files/Map</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1508/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>tex_fix.do</t>
   </si>
   <si>
@@ -235,9 +208,6 @@
     <t>Towns_population.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>Effective_threshold_calculator_1979.do</t>
   </si>
   <si>
@@ -325,19 +295,10 @@
     <t>Master_estimation.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>tex_fix.do</t>
   </si>
   <si>
     <t>Mociones_map.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -381,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -389,13 +350,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -403,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -427,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -439,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -451,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -463,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -475,7 +436,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -487,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -499,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -511,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -535,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -547,7 +508,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -559,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -571,7 +532,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -583,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -595,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -607,10 +568,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.15008264780044556</v>
       </c>
       <c r="D19"/>
     </row>
@@ -619,10 +580,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>349</v>
+        <v>546</v>
       </c>
       <c r="C20">
-        <v>0.11571618169546127</v>
+        <v>0.18049587309360504</v>
       </c>
       <c r="D20"/>
     </row>
@@ -631,10 +592,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>420</v>
+        <v>563</v>
       </c>
       <c r="C21">
-        <v>0.13925729691982269</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D21"/>
     </row>
@@ -643,10 +604,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="C22">
-        <v>0.18136604130268097</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D22"/>
     </row>
@@ -655,10 +616,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>566</v>
+        <v>687</v>
       </c>
       <c r="C23">
-        <v>0.18766577541828156</v>
+        <v>0.22710743546485901</v>
       </c>
       <c r="D23"/>
     </row>
@@ -667,10 +628,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>606</v>
+        <v>712</v>
       </c>
       <c r="C24">
-        <v>0.20092837512493134</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D24"/>
     </row>
@@ -679,10 +640,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>701</v>
+        <v>852</v>
       </c>
       <c r="C25">
-        <v>0.23242706060409546</v>
+        <v>0.28165289759635925</v>
       </c>
       <c r="D25"/>
     </row>
@@ -691,10 +652,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>745</v>
+        <v>884</v>
       </c>
       <c r="C26">
-        <v>0.24701590836048126</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D26"/>
     </row>
@@ -703,10 +664,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>797</v>
+        <v>978</v>
       </c>
       <c r="C27">
-        <v>0.2642572820186615</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D27"/>
     </row>
@@ -715,10 +676,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>839</v>
+        <v>998</v>
       </c>
       <c r="C28">
-        <v>0.27818301320075989</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D28"/>
     </row>
@@ -727,10 +688,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>879</v>
+        <v>1169</v>
       </c>
       <c r="C29">
-        <v>0.29144561290740967</v>
+        <v>0.3864462673664093</v>
       </c>
       <c r="D29"/>
     </row>
@@ -739,10 +700,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C30">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D30"/>
     </row>
@@ -751,10 +712,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1124</v>
+        <v>1368</v>
       </c>
       <c r="C31">
-        <v>0.37267905473709106</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D31"/>
     </row>
@@ -763,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1260</v>
+        <v>1414</v>
       </c>
       <c r="C32">
-        <v>0.41777187585830688</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D32"/>
     </row>
@@ -775,10 +736,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="C33">
-        <v>0.47181698679924011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D33"/>
     </row>
@@ -787,10 +748,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1472</v>
+        <v>1497</v>
       </c>
       <c r="C34">
-        <v>0.48806366324424744</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D34"/>
     </row>
@@ -799,10 +760,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1476</v>
+        <v>1564</v>
       </c>
       <c r="C35">
-        <v>0.48938992619514465</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D35"/>
     </row>
@@ -811,10 +772,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1478</v>
+        <v>1642</v>
       </c>
       <c r="C36">
-        <v>0.49005305767059326</v>
+        <v>0.54280990362167358</v>
       </c>
       <c r="D36"/>
     </row>
@@ -823,10 +784,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1553</v>
+        <v>2057</v>
       </c>
       <c r="C37">
-        <v>0.51492041349411011</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D37"/>
     </row>
@@ -835,10 +796,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1565</v>
+        <v>2243</v>
       </c>
       <c r="C38">
-        <v>0.51889920234680176</v>
+        <v>0.74148762226104736</v>
       </c>
       <c r="D38"/>
     </row>
@@ -847,10 +808,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1660</v>
+        <v>2416</v>
       </c>
       <c r="C39">
-        <v>0.55039787292480469</v>
+        <v>0.79867768287658691</v>
       </c>
       <c r="D39"/>
     </row>
@@ -859,10 +820,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1798</v>
+        <v>2436</v>
       </c>
       <c r="C40">
-        <v>0.5961538553237915</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D40"/>
     </row>
@@ -871,72 +832,12 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1817</v>
+        <v>2806</v>
       </c>
       <c r="C41">
-        <v>0.60245358943939209</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>1859</v>
-      </c>
-      <c r="C42">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D42"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>2336</v>
-      </c>
-      <c r="C43">
-        <v>0.77453583478927612</v>
-      </c>
-      <c r="D43"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>2357</v>
-      </c>
-      <c r="C44">
-        <v>0.78149867057800293</v>
-      </c>
-      <c r="D44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>2367</v>
-      </c>
-      <c r="C45">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>2424</v>
-      </c>
-      <c r="C46">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D46"/>
     </row>
   </sheetData>
 </worksheet>
@@ -944,407 +845,359 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
